--- a/app/database/insert_dicts/data/mos_dict.xlsx
+++ b/app/database/insert_dicts/data/mos_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF6088-59EF-442F-A52F-F1412B302551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822443BE-BD5D-43D4-8E40-B4C1222AB155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
   <si>
-    <t>mo_name</t>
-  </si>
-  <si>
     <t>mo_population</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>УМ ДЗМ</t>
+  </si>
+  <si>
+    <t>mo_</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,8 +730,8 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,953 +743,953 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/app/database/insert_dicts/data/mos_dict.xlsx
+++ b/app/database/insert_dicts/data/mos_dict.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822443BE-BD5D-43D4-8E40-B4C1222AB155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61AA36B-DFF4-440C-8B95-E26C19C72F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">new!$A$1:$C$3</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>mo_population</t>
   </si>
@@ -296,9 +306,6 @@
   </si>
   <si>
     <t>ДГП 129</t>
-  </si>
-  <si>
-    <t>УМ ДЗМ</t>
   </si>
   <si>
     <t>mo_</t>
@@ -349,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,17 +386,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -409,15 +405,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,23 +720,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -752,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -774,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -785,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -796,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -807,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -818,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -829,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -840,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -851,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -862,7 +855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -873,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -884,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -895,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -906,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -917,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -928,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -939,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -950,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -961,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -972,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -983,7 +976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -994,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1005,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1027,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1060,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1071,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1082,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1093,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1104,7 +1097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1115,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1137,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1148,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1170,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1181,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1192,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1203,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1214,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1225,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -1236,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -1247,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -1258,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1269,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1280,7 +1273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -1291,7 +1284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -1302,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
@@ -1313,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -1324,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -1335,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -1346,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -1368,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -1379,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -1390,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -1401,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1412,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -1423,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -1434,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -1445,7 +1438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -1456,7 +1449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -1467,7 +1460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -1478,7 +1471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -1489,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -1500,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -1511,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -1522,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -1533,7 +1526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
@@ -1544,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
@@ -1555,7 +1548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -1566,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>80</v>
       </c>
@@ -1577,7 +1570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
@@ -1588,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>82</v>
       </c>
@@ -1599,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -1610,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -1621,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>85</v>
       </c>
@@ -1632,7 +1625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
@@ -1643,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>87</v>
       </c>
@@ -1654,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>88</v>
       </c>
@@ -1665,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>89</v>
       </c>
@@ -1676,7 +1669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>90</v>
       </c>
@@ -1687,13 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/app/database/insert_dicts/data/mos_dict.xlsx
+++ b/app/database/insert_dicts/data/mos_dict.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28508"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96453EAD-0348-4189-935B-098812F82B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
   <si>
     <t>mo_</t>
   </si>
@@ -305,12 +304,39 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>ГКБ 3</t>
+  </si>
+  <si>
+    <t>ГКБ 13</t>
+  </si>
+  <si>
+    <t>ГБ Вороновская</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая</t>
+  </si>
+  <si>
+    <t>ГБ Щербинская</t>
+  </si>
+  <si>
+    <t>ГБ Московский</t>
+  </si>
+  <si>
+    <t>ДГКБ 13</t>
+  </si>
+  <si>
+    <t>стационар</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,23 +619,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -637,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -651,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -665,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -679,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -693,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -707,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -721,7 +747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -735,7 +761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -749,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -763,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -777,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -791,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -805,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -819,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -833,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -847,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -861,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -875,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -889,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -903,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -917,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -931,7 +957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -945,7 +971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -959,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -973,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -987,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1001,7 +1027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1015,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1029,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1043,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1057,7 +1083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -1071,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -1085,7 +1111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +1125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -1113,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -1127,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -1141,7 +1167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -1155,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -1169,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -1183,7 +1209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1197,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
@@ -1211,7 +1237,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -1225,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -1239,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -1253,7 +1279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
@@ -1267,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
@@ -1281,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
@@ -1295,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -1309,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
@@ -1323,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
@@ -1337,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
@@ -1351,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
@@ -1365,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
@@ -1379,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
@@ -1393,7 +1419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
@@ -1407,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
@@ -1421,7 +1447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
@@ -1435,7 +1461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
@@ -1449,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>68</v>
       </c>
@@ -1463,7 +1489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
@@ -1477,7 +1503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
@@ -1491,7 +1517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
@@ -1505,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
@@ -1519,7 +1545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
@@ -1533,7 +1559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
@@ -1547,7 +1573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
@@ -1561,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
@@ -1575,7 +1601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
@@ -1589,7 +1615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
@@ -1603,7 +1629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
@@ -1617,7 +1643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>80</v>
       </c>
@@ -1631,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
@@ -1645,7 +1671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
@@ -1659,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>83</v>
       </c>
@@ -1673,7 +1699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
@@ -1687,7 +1713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
@@ -1701,7 +1727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
@@ -1715,7 +1741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
@@ -1729,7 +1755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -1743,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>89</v>
       </c>
@@ -1757,7 +1783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
@@ -1771,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>91</v>
       </c>
@@ -1785,7 +1811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -1799,7 +1825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
@@ -1810,6 +1836,118 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>7</v>
       </c>
     </row>
